--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed5/result_data_KNN.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.244</v>
+        <v>-12.288</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.512</v>
+        <v>-21.488</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.882000000000001</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.110000000000001</v>
+        <v>-8.034000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.028</v>
+        <v>-12.394</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.92</v>
+        <v>-7.344999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.8</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.7</v>
+        <v>-12.992</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.694</v>
+        <v>-22.02</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.464</v>
+        <v>-13.305</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.342</v>
+        <v>-12.101</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.424</v>
+        <v>-20.464</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.754</v>
+        <v>-20.03</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.302</v>
+        <v>-8.184000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.032</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.534</v>
+        <v>-12.334</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.676</v>
+        <v>-21.733</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.578</v>
+        <v>-13.035</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.608</v>
+        <v>-7.679</v>
       </c>
     </row>
     <row r="53">
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.694</v>
+        <v>-21.809</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.656</v>
+        <v>-13.054</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.292</v>
+        <v>-21.961</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.984</v>
+        <v>-21.912</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.577</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.47</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.49</v>
+        <v>-21.624</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.718000000000001</v>
+        <v>-7.464</v>
       </c>
     </row>
     <row r="73">
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.422</v>
+        <v>-12.21</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.200000000000001</v>
+        <v>-7.444</v>
       </c>
     </row>
     <row r="79">
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.32</v>
+        <v>-12.695</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.95</v>
+        <v>-22.005</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.376000000000001</v>
+        <v>-7.998</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.52</v>
+        <v>-8.664</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.814</v>
+        <v>-22.115</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.994</v>
+        <v>-8.617000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.108</v>
+        <v>-6.994</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.812</v>
+        <v>-20.755</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.446</v>
+        <v>-21.54</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.094000000000001</v>
+        <v>-7.762</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.756</v>
+        <v>-11.768</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.688</v>
+        <v>-21.703</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.524</v>
+        <v>-12.177</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.762</v>
+        <v>-12.188</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.344999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.548</v>
+        <v>-21.175</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
